--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H2">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N2">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q2">
-        <v>0.08512191352500502</v>
+        <v>0.14195523896</v>
       </c>
       <c r="R2">
-        <v>0.08512191352500502</v>
+        <v>1.27759715064</v>
       </c>
       <c r="S2">
-        <v>0.0001167188829703833</v>
+        <v>0.0001798559876669273</v>
       </c>
       <c r="T2">
-        <v>0.0001167188829703833</v>
+        <v>0.0001798559876669273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H3">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N3">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q3">
-        <v>0.9293525174186426</v>
+        <v>1.309178564526667</v>
       </c>
       <c r="R3">
-        <v>0.9293525174186426</v>
+        <v>11.78260708074</v>
       </c>
       <c r="S3">
-        <v>0.001274325061864981</v>
+        <v>0.001658717251158743</v>
       </c>
       <c r="T3">
-        <v>0.001274325061864981</v>
+        <v>0.001658717251158743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H4">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N4">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q4">
-        <v>0.9781004885952833</v>
+        <v>1.704770760046667</v>
       </c>
       <c r="R4">
-        <v>0.9781004885952833</v>
+        <v>15.34293684042</v>
       </c>
       <c r="S4">
-        <v>0.001341168116810386</v>
+        <v>0.002159928939856095</v>
       </c>
       <c r="T4">
-        <v>0.001341168116810386</v>
+        <v>0.002159928939856095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H5">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I5">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J5">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N5">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q5">
-        <v>1.225282466339829</v>
+        <v>1.75213331946</v>
       </c>
       <c r="R5">
-        <v>1.225282466339829</v>
+        <v>15.76919987514</v>
       </c>
       <c r="S5">
-        <v>0.001680103217514841</v>
+        <v>0.002219936868863343</v>
       </c>
       <c r="T5">
-        <v>0.001680103217514841</v>
+        <v>0.002219936868863343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H6">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I6">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J6">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N6">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q6">
-        <v>0.9147799530746702</v>
+        <v>1.303713368033333</v>
       </c>
       <c r="R6">
-        <v>0.9147799530746702</v>
+        <v>11.7334203123</v>
       </c>
       <c r="S6">
-        <v>0.001254343210402692</v>
+        <v>0.001651792897254628</v>
       </c>
       <c r="T6">
-        <v>0.001254343210402692</v>
+        <v>0.001651792897254628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H7">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I7">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J7">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N7">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q7">
-        <v>0.882270679980685</v>
+        <v>1.323947183346667</v>
       </c>
       <c r="R7">
-        <v>0.882270679980685</v>
+        <v>11.91552465012</v>
       </c>
       <c r="S7">
-        <v>0.001209766603926447</v>
+        <v>0.00167742895594546</v>
       </c>
       <c r="T7">
-        <v>0.001209766603926447</v>
+        <v>0.001677428955945461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H8">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J8">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N8">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q8">
-        <v>12.1277801133365</v>
+        <v>14.51430712915867</v>
       </c>
       <c r="R8">
-        <v>12.1277801133365</v>
+        <v>130.628764162428</v>
       </c>
       <c r="S8">
-        <v>0.01662957150655738</v>
+        <v>0.01838949420353225</v>
       </c>
       <c r="T8">
-        <v>0.01662957150655738</v>
+        <v>0.01838949420353225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H9">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J9">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N9">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q9">
-        <v>132.4098873284623</v>
+        <v>133.8578266759526</v>
       </c>
       <c r="R9">
-        <v>132.4098873284623</v>
+        <v>1204.720440083573</v>
       </c>
       <c r="S9">
-        <v>0.1815599944034683</v>
+        <v>0.1695966404630947</v>
       </c>
       <c r="T9">
-        <v>0.1815599944034683</v>
+        <v>0.1695966404630947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H10">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I10">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J10">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N10">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q10">
-        <v>139.3552748428994</v>
+        <v>174.3054118847899</v>
       </c>
       <c r="R10">
-        <v>139.3552748428994</v>
+        <v>1568.748706963109</v>
       </c>
       <c r="S10">
-        <v>0.1910834865209641</v>
+        <v>0.2208433604839564</v>
       </c>
       <c r="T10">
-        <v>0.1910834865209641</v>
+        <v>0.2208433604839564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H11">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I11">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J11">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N11">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q11">
-        <v>174.5726301621601</v>
+        <v>179.148028041717</v>
       </c>
       <c r="R11">
-        <v>174.5726301621601</v>
+        <v>1612.332252375453</v>
       </c>
       <c r="S11">
-        <v>0.2393734062820806</v>
+        <v>0.2269789108037397</v>
       </c>
       <c r="T11">
-        <v>0.2393734062820806</v>
+        <v>0.2269789108037397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H12">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I12">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J12">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N12">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q12">
-        <v>130.3336551488458</v>
+        <v>133.2990340522595</v>
       </c>
       <c r="R12">
-        <v>130.3336551488458</v>
+        <v>1199.691306470335</v>
       </c>
       <c r="S12">
-        <v>0.178713071786758</v>
+        <v>0.1688886553265712</v>
       </c>
       <c r="T12">
-        <v>0.178713071786758</v>
+        <v>0.1688886553265712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H13">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I13">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J13">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N13">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q13">
-        <v>125.7018829129874</v>
+        <v>135.3678538577416</v>
       </c>
       <c r="R13">
-        <v>125.7018829129874</v>
+        <v>1218.310684719674</v>
       </c>
       <c r="S13">
-        <v>0.172362001196882</v>
+        <v>0.1715098310728551</v>
       </c>
       <c r="T13">
-        <v>0.172362001196882</v>
+        <v>0.1715098310728551</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H14">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I14">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J14">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N14">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q14">
-        <v>0.1659012564890775</v>
+        <v>0.010240679172</v>
       </c>
       <c r="R14">
-        <v>0.1659012564890775</v>
+        <v>0.092166112548</v>
       </c>
       <c r="S14">
-        <v>0.0002274832477197538</v>
+        <v>1.297484672178379E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002274832477197538</v>
+        <v>1.297484672178379E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H15">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I15">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J15">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N15">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q15">
-        <v>1.81129328484549</v>
+        <v>0.094444402027</v>
       </c>
       <c r="R15">
-        <v>1.81129328484549</v>
+        <v>0.849999618243</v>
       </c>
       <c r="S15">
-        <v>0.002483639290801638</v>
+        <v>0.0001196601924002596</v>
       </c>
       <c r="T15">
-        <v>0.002483639290801638</v>
+        <v>0.0001196601924002596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H16">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I16">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J16">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N16">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q16">
-        <v>1.906302305843618</v>
+        <v>0.122982501691</v>
       </c>
       <c r="R16">
-        <v>1.906302305843618</v>
+        <v>1.106842515219</v>
       </c>
       <c r="S16">
-        <v>0.002613915342452587</v>
+        <v>0.0001558177033086962</v>
       </c>
       <c r="T16">
-        <v>0.002613915342452587</v>
+        <v>0.0001558177033086962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H17">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I17">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J17">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N17">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q17">
-        <v>2.38805605163117</v>
+        <v>0.126399246147</v>
       </c>
       <c r="R17">
-        <v>2.38805605163117</v>
+        <v>1.137593215323</v>
       </c>
       <c r="S17">
-        <v>0.003274494466518017</v>
+        <v>0.0001601466872422342</v>
       </c>
       <c r="T17">
-        <v>0.003274494466518017</v>
+        <v>0.0001601466872422342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H18">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I18">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J18">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N18">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q18">
-        <v>1.782891588562866</v>
+        <v>0.094050141665</v>
       </c>
       <c r="R18">
-        <v>1.782891588562866</v>
+        <v>0.8464512749850001</v>
       </c>
       <c r="S18">
-        <v>0.002444694979903386</v>
+        <v>0.0001191606681324346</v>
       </c>
       <c r="T18">
-        <v>0.002444694979903386</v>
+        <v>0.0001191606681324345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.023649</v>
+      </c>
+      <c r="H19">
+        <v>0.070947</v>
+      </c>
+      <c r="I19">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J19">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N19">
+        <v>12.115922</v>
+      </c>
+      <c r="O19">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P19">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q19">
+        <v>0.095509813126</v>
+      </c>
+      <c r="R19">
+        <v>0.8595883181340001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001210100585051376</v>
+      </c>
+      <c r="T19">
+        <v>0.0001210100585051376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.46547</v>
+      </c>
+      <c r="H20">
+        <v>1.39641</v>
+      </c>
+      <c r="I20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.433028</v>
+      </c>
+      <c r="N20">
+        <v>1.299084</v>
+      </c>
+      <c r="O20">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="P20">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="Q20">
+        <v>0.20156154316</v>
+      </c>
+      <c r="R20">
+        <v>1.81405388844</v>
+      </c>
+      <c r="S20">
+        <v>0.0002553766291846886</v>
+      </c>
+      <c r="T20">
+        <v>0.0002553766291846886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.46547</v>
+      </c>
+      <c r="H21">
+        <v>1.39641</v>
+      </c>
+      <c r="I21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N21">
+        <v>11.980769</v>
+      </c>
+      <c r="O21">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="P21">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="Q21">
+        <v>1.858896182143333</v>
+      </c>
+      <c r="R21">
+        <v>16.73006563929</v>
+      </c>
+      <c r="S21">
+        <v>0.0023552044380967</v>
+      </c>
+      <c r="T21">
+        <v>0.0023552044380967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="H19">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="I19">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="J19">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="N19">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="O19">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="P19">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="Q19">
-        <v>1.719531532021675</v>
-      </c>
-      <c r="R19">
-        <v>1.719531532021675</v>
-      </c>
-      <c r="S19">
-        <v>0.002357815882404529</v>
-      </c>
-      <c r="T19">
-        <v>0.002357815882404529</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.46547</v>
+      </c>
+      <c r="H22">
+        <v>1.39641</v>
+      </c>
+      <c r="I22">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J22">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.200325666666667</v>
+      </c>
+      <c r="N22">
+        <v>15.600977</v>
+      </c>
+      <c r="O22">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="P22">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="Q22">
+        <v>2.420595588063334</v>
+      </c>
+      <c r="R22">
+        <v>21.78536029257</v>
+      </c>
+      <c r="S22">
+        <v>0.003066872441079912</v>
+      </c>
+      <c r="T22">
+        <v>0.003066872441079912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.46547</v>
+      </c>
+      <c r="H23">
+        <v>1.39641</v>
+      </c>
+      <c r="I23">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J23">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.344803</v>
+      </c>
+      <c r="N23">
+        <v>16.034409</v>
+      </c>
+      <c r="O23">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="P23">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="Q23">
+        <v>2.48784545241</v>
+      </c>
+      <c r="R23">
+        <v>22.39060907169</v>
+      </c>
+      <c r="S23">
+        <v>0.003152077403300044</v>
+      </c>
+      <c r="T23">
+        <v>0.003152077403300044</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.46547</v>
+      </c>
+      <c r="H24">
+        <v>1.39641</v>
+      </c>
+      <c r="I24">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J24">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.976918333333334</v>
+      </c>
+      <c r="N24">
+        <v>11.930755</v>
+      </c>
+      <c r="O24">
+        <v>0.1730049814741227</v>
+      </c>
+      <c r="P24">
+        <v>0.1730049814741226</v>
+      </c>
+      <c r="Q24">
+        <v>1.851136176616667</v>
+      </c>
+      <c r="R24">
+        <v>16.66022558955</v>
+      </c>
+      <c r="S24">
+        <v>0.002345372582164333</v>
+      </c>
+      <c r="T24">
+        <v>0.002345372582164333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.46547</v>
+      </c>
+      <c r="H25">
+        <v>1.39641</v>
+      </c>
+      <c r="I25">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J25">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N25">
+        <v>12.115922</v>
+      </c>
+      <c r="O25">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P25">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q25">
+        <v>1.879866071113333</v>
+      </c>
+      <c r="R25">
+        <v>16.91879464002</v>
+      </c>
+      <c r="S25">
+        <v>0.002381773095369207</v>
+      </c>
+      <c r="T25">
+        <v>0.002381773095369207</v>
       </c>
     </row>
   </sheetData>
